--- a/biology/Botanique/Coffea_congensis/Coffea_congensis.xlsx
+++ b/biology/Botanique/Coffea_congensis/Coffea_congensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Coffea congensis est une espèce de caféiers[1] proche de l'arabica, qui vivait naturellement en Afrique équatoriale le long des rives des fleuves et rivières du bassin du Congo.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Coffea congensis est une espèce de caféiers proche de l'arabica, qui vivait naturellement en Afrique équatoriale le long des rives des fleuves et rivières du bassin du Congo.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce caféier se rencontre à l'origine en Afrique équatoriale. Il apprécie les environnements en grande partie inondés, sur les rives, dans les îles, lors des crûes de la saison des pluies, quand seules ses branches supérieures émergent et peuvent fleurir.
 </t>
@@ -542,7 +556,9 @@
           <t>Utilisation par l'homme</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa culture a contribué à l'affinage des connaissances sur les cafés, pour la plupart africains, qui ont été confrontés pour trouver la meilleure espèce de café Robusta.
 À la fin des années 1910, il était cultivé dans la plupart des jardins d'essais d'Afrique mais il en avait disparu en 1951.
